--- a/biology/Médecine/Température_au_thermomètre-globe_mouillé/Température_au_thermomètre-globe_mouillé.xlsx
+++ b/biology/Médecine/Température_au_thermomètre-globe_mouillé/Température_au_thermomètre-globe_mouillé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Temp%C3%A9rature_au_thermom%C3%A8tre-globe_mouill%C3%A9</t>
+          <t>Température_au_thermomètre-globe_mouillé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'indice de température au thermomètre-globe mouillé (WBGT, de l'anglais wet-bulb globe temperature) est un indice composite de température utilisé pour estimer les effets de la température, de l'humidité et du rayonnement solaire sur l'homme[1]. C'est le seul indice de température ressentie à tenir compte du rayonnement solaire, contrairement à l’indice de chaleur (heat index) utilisé par le National Weather Service ou à l’indice humidex utilisé par le Service météorologique du Canada.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'indice de température au thermomètre-globe mouillé (WBGT, de l'anglais wet-bulb globe temperature) est un indice composite de température utilisé pour estimer les effets de la température, de l'humidité et du rayonnement solaire sur l'homme. C'est le seul indice de température ressentie à tenir compte du rayonnement solaire, contrairement à l’indice de chaleur (heat index) utilisé par le National Weather Service ou à l’indice humidex utilisé par le Service météorologique du Canada.
 L'indice WBGT a été élaboré par le United States Marine Corps à Parris Island en 1956 pour réduire le risque de traumatismes liés au stress thermique chez les nouvelles recrues et a été révisé à plusieurs reprises. Il est utilisé en hygiène industrielle, mais aussi par les athlètes et les militaires pour déterminer les niveaux d'exposition à des températures élevées.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Temp%C3%A9rature_au_thermom%C3%A8tre-globe_mouill%C3%A9</t>
+          <t>Température_au_thermomètre-globe_mouillé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Formule</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est dérivé de la formule suivante[2],[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est dérivé de la formule suivante, :
         W
         B
         G
@@ -546,13 +560,13 @@
           T
             g
     {\displaystyle T_{g}}
- la température de globe (mesurée avec un thermomètre à globe noir (thermomètre de Missenard ou à boule noire), dont l'organe sensible est en verre noir ou recouvert de noir de fumée de façon à fonctionner approximativement comme un corps noir pour mesurer le rayonnement solaire[4]. Il s'agit de la boule noire au sommet de l'appareil dans l'image du début de l'article) ;
+ la température de globe (mesurée avec un thermomètre à globe noir (thermomètre de Missenard ou à boule noire), dont l'organe sensible est en verre noir ou recouvert de noir de fumée de façon à fonctionner approximativement comme un corps noir pour mesurer le rayonnement solaire. Il s'agit de la boule noire au sommet de l'appareil dans l'image du début de l'article) ;
           T
             d
     {\displaystyle T_{d}}
  la température de l’air mesurée par un thermomètre dont le bulbe est protégé du rayonnement par un écran, comme dans un abri Stevenson. Parfois improprement appelée température sèche ;
-Les températures peuvent être exprimées, soit en degrés Celsius, soit en degrés Fahrenheit[5].
-À l'intérieur, ou lorsque le rayonnement solaire est négligeable, on utilise la formule suivante[3],[6] :
+Les températures peuvent être exprimées, soit en degrés Celsius, soit en degrés Fahrenheit.
+À l'intérieur, ou lorsque le rayonnement solaire est négligeable, on utilise la formule suivante, :
         W
         B
         G
@@ -570,8 +584,6 @@
           T
             g
     {\displaystyle WBGT=0{,}7T_{w}+0{,}3T_{g}}
-Comparaison avec les autres indices
-Parce que le WBGT utilise la température de globe, il tient compte non seulement de l'ensoleillement variant dans le temps selon l'angle du soleil mais également indirectement du refroidissement éolien et de la couverture nuageuse. Il s'agit donc d'un indice plus dynamique que l'humidex et l'indice de chaleur qui utilise seulement la température et l'humidité à l'ombre[7].
 </t>
         </is>
       </c>
@@ -582,7 +594,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Temp%C3%A9rature_au_thermom%C3%A8tre-globe_mouill%C3%A9</t>
+          <t>Température_au_thermomètre-globe_mouillé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -597,12 +609,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Formule</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Comparaison avec les autres indices</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parce que le WBGT utilise la température de globe, il tient compte non seulement de l'ensoleillement variant dans le temps selon l'angle du soleil mais également indirectement du refroidissement éolien et de la couverture nuageuse. Il s'agit donc d'un indice plus dynamique que l'humidex et l'indice de chaleur qui utilise seulement la température et l'humidité à l'ombre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Température_au_thermomètre-globe_mouillé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Temp%C3%A9rature_au_thermom%C3%A8tre-globe_mouill%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Valeurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’American Conference of Governmental Industrial Hygienists publie des valeurs limites (TLVs) d’exposition qui ont été adoptées par de nombreux gouvernements pour une utilisation sur les lieux de travail. Le processus utilisé pour la détermination du WBGT est également décrit dans la norme ISO 7243, Ambiances chaudes - Estimation du stress thermique sur l'homme au travail, d’après l’indice WBGT[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’American Conference of Governmental Industrial Hygienists publie des valeurs limites (TLVs) d’exposition qui ont été adoptées par de nombreux gouvernements pour une utilisation sur les lieux de travail. Le processus utilisé pour la détermination du WBGT est également décrit dans la norme ISO 7243, Ambiances chaudes - Estimation du stress thermique sur l'homme au travail, d’après l’indice WBGT.
 Dans des zones à température élevée, certaines bases militaires américaines hissent un drapeau pour indiquer la catégorie de risque thermique en fonction du WBGT. Les militaires publient des recommandations  pour l’hydratation et le niveau d'activité physique à ne pas dépasser pour les sujets acclimatés et non acclimatés selon leur équipement, sur la base de l’indice thermique.
 </t>
         </is>
